--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114198.2307207187</v>
+        <v>112707.4944449567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23511606.65325126</v>
+        <v>23347074.56340344</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8806943.246650698</v>
+        <v>8645685.345390847</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4961555.420074686</v>
+        <v>5015572.801786793</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6861762689734</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>403.1572050940909</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>141.3076780977018</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>195.4412737632115</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>185.6197914577337</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.937683571882573</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.97478045648731</v>
+        <v>141.3076780977018</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>2.407212651118701</v>
+        <v>396.7787713257347</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>125.4289004454252</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>407.2606697395771</v>
+        <v>385.3238927773753</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.28928691739478</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>84.2829242155609</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>405.4164878341365</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.032634771167993</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1771,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>49.19020794552362</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>231.9214256320455</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>29.26230950814955</v>
+        <v>85.54275136626498</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.2439167388814</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>174.543305109934</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2090,13 +2092,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>190.0850004905293</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>35.16791248334739</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950059</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>54.66258501924893</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2330,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>37.16250365533507</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>231.8397749350065</v>
       </c>
     </row>
     <row r="24">
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225755</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2567,13 +2569,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>38.66811097253201</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.50306732735508</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>96.68259506970324</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>115.0078226534528</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2852,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>98.63827879747123</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2998,19 +3000,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>46.2253027104011</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828923</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>274.711744148233</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>15.39835161989321</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3272,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>88.40947479936742</v>
+        <v>233.68395510058</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3332,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3433,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>14.1441627534537</v>
       </c>
       <c r="G37" t="n">
-        <v>160.7884964950059</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>253.8159699232736</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.426406635550681</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3661,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>50.38971918733559</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>73.71535300153015</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3749,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>70.56841052357672</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>82.60248945224424</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>108.5103196251632</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>374.4268935289278</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>232.2523964141383</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4065,7 +4067,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55000000000001</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
         <v>84.53123883647795</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.99586200330664</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.883859595509</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.883859595509</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>441.1731686966497</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4333,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4370,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.6786969831253</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="C4" t="n">
-        <v>176.6786969831253</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="D4" t="n">
-        <v>176.6786969831253</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>176.6786969831253</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1232.470734320596</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>945.5152261910268</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>673.4888217773184</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.4973157021125</v>
+        <v>428.0970671107308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>464.8993883704147</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C5" t="n">
-        <v>464.8993883704147</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D5" t="n">
-        <v>464.8993883704147</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="E5" t="n">
-        <v>36.31771410768306</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F5" t="n">
-        <v>36.31771410768306</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
@@ -4601,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,34 +4634,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.6920270441282</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="C7" t="n">
-        <v>55.1303155273531</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="D7" t="n">
-        <v>55.1303155273531</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="E7" t="n">
-        <v>55.1303155273531</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4726,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4756,19 +4758,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y7" t="n">
-        <v>419.5106457631153</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
         <v>33.94366860160834</v>
@@ -4802,52 +4804,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K8" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="L8" t="n">
-        <v>1107.976466382457</v>
-      </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1250.914606198081</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>846.059151609114</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>843.6276236786911</v>
+        <v>1296.396792377655</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>888.1106686773085</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.4397056785397</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
         <v>33.94366860160834</v>
@@ -4960,52 +4962,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1549.069749750006</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1549.069749750006</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>1549.069749750006</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>1549.069749750006</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X10" t="n">
-        <v>1303.677995083419</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.258324397527</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1855120707613</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C11" t="n">
-        <v>873.1855120707613</v>
+        <v>423.1597219120885</v>
       </c>
       <c r="D11" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5042,19 +5044,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5078,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.603617826933</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="C13" t="n">
-        <v>122.603617826933</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="D13" t="n">
-        <v>122.603617826933</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E13" t="n">
-        <v>122.603617826933</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F13" t="n">
-        <v>122.603617826933</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G13" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H13" t="n">
         <v>122.603617826933</v>
@@ -5200,19 +5202,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M13" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N13" t="n">
-        <v>1292.259348259376</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P13" t="n">
         <v>1697.183430080417</v>
@@ -5221,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1678.70940289113</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.829956469585</v>
+        <v>1431.389973199381</v>
       </c>
       <c r="U13" t="n">
-        <v>1154.39695572269</v>
+        <v>1152.956972452486</v>
       </c>
       <c r="V13" t="n">
-        <v>867.4414475931208</v>
+        <v>866.0014643229167</v>
       </c>
       <c r="W13" t="n">
-        <v>595.4150431794122</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="X13" t="n">
-        <v>350.0232885128247</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.603617826933</v>
+        <v>593.9750599092082</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.3414999783445</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="C14" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D14" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5279,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5315,13 +5317,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1689.069657584288</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>1269.927194163599</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y14" t="n">
-        <v>861.6410704632523</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>884.4397056785397</v>
+        <v>422.0704516497129</v>
       </c>
       <c r="C16" t="n">
-        <v>711.8779941617646</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="D16" t="n">
-        <v>546.0000013632873</v>
+        <v>83.63074733446049</v>
       </c>
       <c r="E16" t="n">
-        <v>376.2419976140245</v>
+        <v>83.63074733446049</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5440,10 +5442,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N16" t="n">
         <v>1277.514180854636</v>
@@ -5461,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1303.677995083419</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1303.677995083419</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1303.677995083419</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>1303.677995083419</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>1303.677995083419</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y16" t="n">
-        <v>1076.258324397527</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>435.3414999783445</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="C17" t="n">
-        <v>435.3414999783445</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D17" t="n">
-        <v>435.3414999783445</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E17" t="n">
-        <v>435.3414999783445</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F17" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>1667.625541688347</v>
+        <v>2583.654006869544</v>
       </c>
       <c r="W17" t="n">
-        <v>1262.77008709938</v>
+        <v>2178.798552280577</v>
       </c>
       <c r="X17" t="n">
-        <v>843.6276236786911</v>
+        <v>1759.656088859888</v>
       </c>
       <c r="Y17" t="n">
-        <v>435.3414999783445</v>
+        <v>1351.369965159541</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D18" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E18" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K18" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L18" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M18" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N18" t="n">
-        <v>384.5656667282782</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S18" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U18" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W18" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.6507226398521</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6507226398521</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>210.6507226398521</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T19" t="n">
-        <v>1520.877061282504</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U19" t="n">
-        <v>1242.444060535609</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V19" t="n">
-        <v>955.4885524060398</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W19" t="n">
-        <v>683.4621479923314</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X19" t="n">
-        <v>438.0703933257439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.6507226398521</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2243.76125594652</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C20" t="n">
-        <v>1805.618783129943</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D20" t="n">
-        <v>1369.708998304388</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E20" t="n">
-        <v>935.934253462683</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
         <v>53.40121652862856</v>
@@ -5753,16 +5755,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M20" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
         <v>1293.567921177998</v>
@@ -5789,13 +5791,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X20" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y20" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J21" t="n">
-        <v>1357.443063079289</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K21" t="n">
-        <v>2012.149109705013</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L21" t="n">
-        <v>2012.149109705013</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M21" t="n">
-        <v>2012.149109705013</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="N21" t="n">
-        <v>2012.149109705013</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P21" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.888048337089</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R21" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>392.5208932891006</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508568</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M22" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5941,19 +5943,19 @@
         <v>2402.763558715255</v>
       </c>
       <c r="U22" t="n">
-        <v>2124.330557968361</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2224.853937954462</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C23" t="n">
-        <v>1786.711465137886</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D23" t="n">
-        <v>1350.80168031233</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E23" t="n">
-        <v>917.0269354706253</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F23" t="n">
-        <v>489.159505879833</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G23" t="n">
-        <v>87.7616745030969</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H23" t="n">
-        <v>87.7616745030969</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>522.5995725831548</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>1356.949864541333</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1356.949864541333</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>1356.949864541333</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>1843.101864396492</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>2823.281530966799</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>3651.591405800194</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>4198.090191758789</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>4283.592382695682</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>4283.592382695682</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U23" t="n">
-        <v>4246.054500215546</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V23" t="n">
-        <v>3883.437550149372</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W23" t="n">
-        <v>3478.582095560406</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="X23" t="n">
-        <v>3059.439632139717</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="Y23" t="n">
-        <v>2651.15350843937</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3210.176240024329</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C24" t="n">
-        <v>3103.719778860971</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D24" t="n">
-        <v>3008.629490007525</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E24" t="n">
-        <v>2914.509075334478</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F24" t="n">
-        <v>2831.12523695064</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G24" t="n">
-        <v>2745.740147216824</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H24" t="n">
-        <v>2704.004495033037</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I24" t="n">
-        <v>2730.068168193494</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J24" t="n">
-        <v>3054.626493159707</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K24" t="n">
-        <v>3709.332539785431</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L24" t="n">
-        <v>3709.332539785431</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M24" t="n">
-        <v>3709.332539785431</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N24" t="n">
-        <v>3709.332539785431</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O24" t="n">
-        <v>3709.332539785431</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P24" t="n">
-        <v>3709.332539785431</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q24" t="n">
-        <v>4250.071478417506</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R24" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S24" t="n">
-        <v>4303.788818960228</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T24" t="n">
-        <v>4173.61017529083</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U24" t="n">
-        <v>3997.273628290798</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V24" t="n">
-        <v>3798.156110352797</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W24" t="n">
-        <v>3612.833356085991</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.965920324872</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y24" t="n">
-        <v>3331.480141104093</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.0800912498526</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C25" t="n">
-        <v>783.5183797330775</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6403869346002</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E25" t="n">
-        <v>447.8823831853375</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F25" t="n">
-        <v>271.1753291470936</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G25" t="n">
-        <v>105.5840541729213</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
-        <v>173.9245702949268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>448.6830248660624</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>866.8929066340235</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1326.376773814936</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1768.635576972581</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2188.304826198362</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.811720168704</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2704.004495033037</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T25" t="n">
-        <v>2458.125048611492</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U25" t="n">
-        <v>2179.692047864597</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.736539735027</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W25" t="n">
-        <v>1620.710135321319</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X25" t="n">
-        <v>1375.318380654732</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y25" t="n">
-        <v>1147.89870996884</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1789.512437976118</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="C26" t="n">
-        <v>1351.369965159541</v>
+        <v>1390.011873738734</v>
       </c>
       <c r="D26" t="n">
-        <v>915.4601803339856</v>
+        <v>954.1020889131782</v>
       </c>
       <c r="E26" t="n">
-        <v>481.6854354922808</v>
+        <v>520.3273440714734</v>
       </c>
       <c r="F26" t="n">
-        <v>53.81800590148855</v>
+        <v>92.45991448068111</v>
       </c>
       <c r="G26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6242,34 +6244,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2624.098132161372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2624.098132161372</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U26" t="n">
-        <v>2624.098132161372</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V26" t="n">
-        <v>2624.098132161372</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W26" t="n">
-        <v>2624.098132161372</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X26" t="n">
-        <v>2624.098132161372</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="Y26" t="n">
-        <v>2215.812008461025</v>
+        <v>1828.15434655531</v>
       </c>
     </row>
     <row r="27">
@@ -6297,16 +6299,16 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
         <v>1058.729261281022</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.8972536055599</v>
+        <v>968.8969033375045</v>
       </c>
       <c r="C28" t="n">
-        <v>731.3355420887848</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D28" t="n">
-        <v>565.4575492903075</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E28" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F28" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T28" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W28" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y28" t="n">
-        <v>1095.715872324547</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>169.5707343603991</v>
+        <v>1644.867847691197</v>
       </c>
       <c r="C29" t="n">
-        <v>169.5707343603991</v>
+        <v>1206.72537487462</v>
       </c>
       <c r="D29" t="n">
-        <v>53.40121652862856</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="E29" t="n">
-        <v>53.40121652862856</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K29" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L29" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M29" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N29" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O29" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W29" t="n">
-        <v>1423.298891966343</v>
+        <v>1644.867847691197</v>
       </c>
       <c r="X29" t="n">
-        <v>1004.156428545654</v>
+        <v>1644.867847691197</v>
       </c>
       <c r="Y29" t="n">
-        <v>595.8703048453069</v>
+        <v>1644.867847691197</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6616,7 +6618,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6625,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6646,16 +6648,16 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2601.950780176799</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T31" t="n">
-        <v>2356.071333755254</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U31" t="n">
-        <v>2356.071333755254</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V31" t="n">
-        <v>2069.115825625685</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W31" t="n">
         <v>1797.089421211977</v>
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>732.2856581561051</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C32" t="n">
-        <v>732.2856581561051</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D32" t="n">
-        <v>732.2856581561051</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E32" t="n">
-        <v>732.2856581561051</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F32" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M32" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6731,19 +6733,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U32" t="n">
-        <v>2327.186649932281</v>
+        <v>2570.855062090121</v>
       </c>
       <c r="V32" t="n">
-        <v>1964.569699866108</v>
+        <v>2208.238112023947</v>
       </c>
       <c r="W32" t="n">
-        <v>1559.714245277141</v>
+        <v>2208.238112023947</v>
       </c>
       <c r="X32" t="n">
-        <v>1140.571781856452</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y32" t="n">
-        <v>732.2856581561051</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6780,19 +6782,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6847,13 +6849,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6862,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>833.6484916323492</v>
+        <v>1119.127665960512</v>
       </c>
       <c r="C35" t="n">
-        <v>833.6484916323492</v>
+        <v>1119.127665960512</v>
       </c>
       <c r="D35" t="n">
-        <v>833.6484916323492</v>
+        <v>1119.127665960512</v>
       </c>
       <c r="E35" t="n">
-        <v>744.3459918350084</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F35" t="n">
-        <v>744.3459918350084</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G35" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K35" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L35" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M35" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N35" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U35" t="n">
-        <v>2449.993599304466</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V35" t="n">
-        <v>2087.376649238293</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W35" t="n">
-        <v>2087.376649238293</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="X35" t="n">
-        <v>1668.234185817604</v>
+        <v>1545.42723644542</v>
       </c>
       <c r="Y35" t="n">
-        <v>1259.948062117257</v>
+        <v>1545.42723644542</v>
       </c>
     </row>
     <row r="36">
@@ -6993,13 +6995,13 @@
         <v>1512.992809943912</v>
       </c>
       <c r="C36" t="n">
-        <v>1406.536348780554</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D36" t="n">
-        <v>1311.446059927107</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E36" t="n">
-        <v>1217.325645254061</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F36" t="n">
         <v>1133.941806870223</v>
@@ -7008,7 +7010,7 @@
         <v>1048.556717136407</v>
       </c>
       <c r="H36" t="n">
-        <v>1006.821064952619</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I36" t="n">
         <v>1032.884738113077</v>
@@ -7050,13 +7052,13 @@
         <v>2300.090198210381</v>
       </c>
       <c r="V36" t="n">
-        <v>2100.97268027238</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W36" t="n">
-        <v>1915.649926005574</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X36" t="n">
-        <v>1760.782490244454</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y36" t="n">
         <v>1634.296711023675</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>900.7186013536157</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1568898368406</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D37" t="n">
-        <v>562.2788970383633</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E37" t="n">
-        <v>392.5208932891006</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F37" t="n">
-        <v>215.8138392508568</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7120,25 +7122,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T37" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U37" t="n">
-        <v>2124.33055796836</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W37" t="n">
-        <v>1565.348645425082</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y37" t="n">
-        <v>1092.537220072603</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1182.071675278725</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
@@ -7184,40 +7186,40 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U38" t="n">
-        <v>2366.341725488303</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V38" t="n">
-        <v>2003.72477542213</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W38" t="n">
-        <v>1598.869320833163</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X38" t="n">
-        <v>1590.357798979072</v>
+        <v>1409.011883134621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1182.071675278725</v>
+        <v>1000.725759434275</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J39" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K39" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L39" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M39" t="n">
-        <v>404.0232146552985</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N39" t="n">
-        <v>404.0232146552985</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O39" t="n">
-        <v>404.0232146552985</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P39" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q39" t="n">
         <v>1599.468199913098</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.1364226482442</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C40" t="n">
-        <v>871.2377163984103</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D40" t="n">
-        <v>705.359723599933</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E40" t="n">
-        <v>535.6017198506702</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F40" t="n">
-        <v>358.8946658124264</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G40" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7357,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T40" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>2145.748379262989</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V40" t="n">
-        <v>1858.792871133419</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W40" t="n">
-        <v>1586.766466719711</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X40" t="n">
-        <v>1341.374712053123</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.955041367231</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1762.626050389202</v>
+        <v>2261.774702731082</v>
       </c>
       <c r="C41" t="n">
-        <v>1324.483577572625</v>
+        <v>1823.632229914505</v>
       </c>
       <c r="D41" t="n">
-        <v>888.5737927470695</v>
+        <v>1387.722445088949</v>
       </c>
       <c r="E41" t="n">
-        <v>454.7990479053647</v>
+        <v>953.9477002472445</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>526.0802706564523</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>124.6824392797162</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
@@ -7418,19 +7420,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="M41" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N41" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7445,16 +7447,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>2586.623968398858</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W41" t="n">
-        <v>2181.768513809891</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X41" t="n">
-        <v>1762.626050389202</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y41" t="n">
-        <v>1762.626050389202</v>
+        <v>2261.774702731082</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1013.503637065321</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C43" t="n">
-        <v>840.9419255485456</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D43" t="n">
-        <v>675.0639327500683</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E43" t="n">
-        <v>505.3059290008055</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F43" t="n">
-        <v>328.5988749625617</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0075999883894</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7594,25 +7596,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U43" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W43" t="n">
-        <v>1678.133681136787</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X43" t="n">
-        <v>1432.7419264702</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.322255784308</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1697.183430080417</v>
+        <v>2023.694028819559</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.601755817686</v>
+        <v>1585.551556002983</v>
       </c>
       <c r="D44" t="n">
-        <v>840.020081554954</v>
+        <v>1149.641771177427</v>
       </c>
       <c r="E44" t="n">
-        <v>461.8110981924006</v>
+        <v>715.8670263357221</v>
       </c>
       <c r="F44" t="n">
-        <v>33.94366860160834</v>
+        <v>287.9995967449299</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="Y44" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304467</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J45" t="n">
-        <v>33.94366860160834</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K45" t="n">
-        <v>33.94366860160834</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L45" t="n">
-        <v>453.9965675465116</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>453.9965675465116</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>453.9965675465116</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1199904125018</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1199904125018</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>376.2419976140245</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>376.2419976140245</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>199.5349435757807</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.765608785789</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>1429.886162364244</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.45316161735</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>1151.45316161735</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>879.4267572036415</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>634.035002537054</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>634.035002537054</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -7997,7 +7999,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8374,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>296.9562613211783</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8772,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8848,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9000,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9088,13 +9090,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,11 +9403,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L20" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -9413,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>491.0626261163229</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158829</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10428,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10832,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>658.3613220306672</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>54.86451070832652</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20.43155020079342</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22610,10 +22612,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22714,16 +22716,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>33.63230540015951</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -22759,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>80.20739697621417</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22790,19 +22792,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>243.8172059355541</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>395.4461694910862</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -22951,7 +22953,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>153.965203041374</v>
+        <v>33.63230540015951</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23030,10 +23032,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -23078,13 +23080,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>412.5438261353637</v>
+        <v>18.17226746074766</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23224,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>117.991751511904</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>24.29001723772285</v>
+        <v>46.2267941999246</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23318,7 +23320,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -23428,10 +23430,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.3596680975885</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>159.1377277417684</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>28.34456025427443</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23507,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23555,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>392.774265271909</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.7497755523377</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,25 +23703,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>11.49922632528379</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>329.7284710573622</v>
+        <v>273.4480291992468</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>68.8773468473953</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>233.503754804355</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24029,10 +24031,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>365.6389875597296</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>229.4233680290249</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>219.4675760008182</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>172.3634875283365</v>
       </c>
     </row>
     <row r="24">
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>358.7157420904367</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.31228775064628</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24509,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>74.15349933190407</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>316.5428643238471</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>302.1686212456058</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>148.8770111466513</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24971,19 +24973,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.2317280362601</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25160,16 +25162,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>341.0275225939204</v>
+        <v>195.7530422927078</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="G37" t="n">
-        <v>3.14686572942469</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>168.2206048567851</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>406.5246321509317</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>201.9333177378955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>215.6704424876392</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25685,16 +25687,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>276.3882911132675</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>29.99283294136605</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>55.01010386435991</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>165.1314566488305</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25916,7 +25918,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.90457052849059</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>348708.8086472607</v>
+        <v>348708.8086472606</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348708.8086472607</v>
+        <v>348708.8086472605</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>348708.8086472607</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680666.9007670841</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490548.9475593994</v>
+        <v>490548.9475593996</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490548.9475593994</v>
+        <v>490548.9475593996</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490548.9475593994</v>
+        <v>490548.9475593995</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490548.9475593995</v>
+        <v>490548.9475593996</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490548.9475593995</v>
+        <v>490548.9475593996</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348708.8086472607</v>
+        <v>490548.9475593995</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>78131.51941534778</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78131.51941534778</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78131.51941534779</v>
+      </c>
+      <c r="E2" t="n">
         <v>78131.51941534781</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>78131.51941534779</v>
       </c>
-      <c r="D2" t="n">
-        <v>78131.51941534778</v>
-      </c>
-      <c r="E2" t="n">
-        <v>78131.51941534778</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78131.51941534778</v>
-      </c>
       <c r="G2" t="n">
-        <v>78131.51941534778</v>
+        <v>109912.1492488192</v>
       </c>
       <c r="H2" t="n">
         <v>109912.1492488192</v>
       </c>
       <c r="I2" t="n">
-        <v>152509.8817519814</v>
+        <v>109912.1492488192</v>
       </c>
       <c r="J2" t="n">
         <v>109912.1492488192</v>
@@ -26353,7 +26355,7 @@
         <v>109912.1492488192</v>
       </c>
       <c r="P2" t="n">
-        <v>78131.51941534779</v>
+        <v>109912.1492488192</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66662.77529471669</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112829.1787276037</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>58530.97957731676</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="C4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="D4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="E4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="F4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="G4" t="n">
-        <v>6500.075391072234</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="H4" t="n">
         <v>9144.033827297713</v>
       </c>
       <c r="I4" t="n">
-        <v>12687.91054736176</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="J4" t="n">
         <v>9144.033827297713</v>
       </c>
       <c r="K4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="L4" t="n">
         <v>9144.033827297713</v>
       </c>
       <c r="M4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="N4" t="n">
         <v>9144.033827297713</v>
@@ -26457,7 +26459,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="P4" t="n">
-        <v>6500.075391072234</v>
+        <v>9144.033827297713</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>66382.11269898004</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>12206.65588705321</v>
       </c>
       <c r="D6" t="n">
-        <v>12206.65588705321</v>
+        <v>12206.65588705322</v>
       </c>
       <c r="E6" t="n">
-        <v>45834.25588705321</v>
+        <v>45834.25588705323</v>
       </c>
       <c r="F6" t="n">
-        <v>45834.25588705321</v>
+        <v>45834.25588705322</v>
       </c>
       <c r="G6" t="n">
-        <v>45834.25588705321</v>
+        <v>-6479.584434952943</v>
       </c>
       <c r="H6" t="n">
-        <v>-5439.578498253679</v>
+        <v>60183.19085976379</v>
       </c>
       <c r="I6" t="n">
-        <v>-39389.32022196402</v>
+        <v>60183.19085976379</v>
       </c>
       <c r="J6" t="n">
+        <v>-50831.27448522643</v>
+      </c>
+      <c r="K6" t="n">
+        <v>60183.19085976378</v>
+      </c>
+      <c r="L6" t="n">
+        <v>60183.19085976378</v>
+      </c>
+      <c r="M6" t="n">
+        <v>60183.1908597638</v>
+      </c>
+      <c r="N6" t="n">
+        <v>60183.1908597638</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1652.211282447024</v>
+      </c>
+      <c r="P6" t="n">
         <v>60183.19085976377</v>
-      </c>
-      <c r="K6" t="n">
-        <v>60183.19085976377</v>
-      </c>
-      <c r="L6" t="n">
-        <v>60183.19085976377</v>
-      </c>
-      <c r="M6" t="n">
-        <v>60183.19085976379</v>
-      </c>
-      <c r="N6" t="n">
-        <v>60183.19085976377</v>
-      </c>
-      <c r="O6" t="n">
-        <v>60183.19085976376</v>
-      </c>
-      <c r="P6" t="n">
-        <v>45834.25588705321</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>1091.811064127961</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>243.2193490877526</v>
-      </c>
-      <c r="I4" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -34717,7 +34719,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35094,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>296.9562613211783</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35492,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35808,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,11 +36123,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L20" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -36133,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,28 +36360,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>491.0626261163229</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158829</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,7 +36600,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697544</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36993,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37230,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37385,7 +37387,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,7 +37478,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37552,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37856,13 +37858,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>658.3613220306672</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,10 +38034,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,19 +38183,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112707.4944449567</v>
+        <v>107419.5237212362</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23347074.56340344</v>
+        <v>22598784.43994339</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8645685.345390847</v>
+        <v>7912286.195387661</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5015572.801786793</v>
+        <v>5394052.895677915</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>403.1572050940909</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>396.0716691005147</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>161.4837590384571</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>195.4412737632115</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.350305051013968</v>
       </c>
       <c r="E5" t="n">
-        <v>185.6197914577337</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>141.3076780977018</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>105.4844275987549</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>214.3059248715262</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>396.7787713257347</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>29.18607610565334</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>385.3238927773753</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>70.55145694244821</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>43.48898701015851</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.2829242155609</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>405.4164878341365</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>106.2937748460776</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>49.19020794552362</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>28.8556017839858</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>115.2379269882879</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>85.54275136626498</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>31.2439167388814</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950059</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2092,16 +2092,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>35.16791248334739</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>71.70796955927059</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7884964950059</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>133.9986524434723</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>35.16791248334732</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8397749350065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>31.24391673888146</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>38.66811097253201</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>149.4370413361365</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>96.68259506970324</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.48898701015896</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -2845,22 +2845,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>15.97053131665406</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>98.63827879747123</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>125.6544692828923</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3034,22 +3034,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>15.39835161989321</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>14.84070325967425</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3268,19 +3268,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>233.68395510058</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>149.0244198570051</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.1441627534537</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>253.8159699232736</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>303.265604154082</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>73.71535300153015</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>189.9879808696994</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>167.5775678651628</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>70.56841052357672</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>374.6538512851648</v>
       </c>
       <c r="G44" t="n">
-        <v>232.2523964141383</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>53.90045570694564</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>869.7548429593813</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
-        <v>869.7548429593813</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D2" t="n">
-        <v>869.7548429593813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>441.1731686966497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4330,7 +4330,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4345,10 +4345,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4372,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.040966659728</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.7548429593813</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.0970671107308</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>532.694573269002</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>366.8165804705247</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>197.058576721262</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>197.058576721262</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1232.470734320596</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>945.5152261910268</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>673.4888217773184</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>428.0970671107308</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.0970671107308</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.5685620045878</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="C5" t="n">
-        <v>510.5685620045878</v>
+        <v>36.31771410768306</v>
       </c>
       <c r="D5" t="n">
-        <v>510.5685620045878</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
         <v>33.94366860160834</v>
@@ -4567,19 +4567,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4603,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y5" t="n">
-        <v>510.5685620045878</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="6">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.6786969831253</v>
+        <v>990.9896325459688</v>
       </c>
       <c r="C7" t="n">
-        <v>176.6786969831253</v>
+        <v>818.4279210291937</v>
       </c>
       <c r="D7" t="n">
-        <v>176.6786969831253</v>
+        <v>652.5499282307164</v>
       </c>
       <c r="E7" t="n">
-        <v>176.6786969831253</v>
+        <v>482.7919244814537</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>306.0848704432099</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>140.4935954690375</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4731,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.38760622724</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4755,22 +4755,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.4973157021125</v>
+        <v>1182.808251264956</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>461.8110981924006</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="C8" t="n">
-        <v>461.8110981924006</v>
+        <v>1567.840596342901</v>
       </c>
       <c r="D8" t="n">
-        <v>461.8110981924006</v>
+        <v>1131.930811517346</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>698.1560666756407</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>270.2886370848484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>270.2886370848484</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.396792377655</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.1106686773085</v>
+        <v>2005.983069159478</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>851.7413961748201</v>
+        <v>996.999321481435</v>
       </c>
       <c r="C11" t="n">
-        <v>423.1597219120885</v>
+        <v>558.8568486648583</v>
       </c>
       <c r="D11" t="n">
-        <v>33.94366860160834</v>
+        <v>558.8568486648583</v>
       </c>
       <c r="E11" t="n">
-        <v>33.94366860160834</v>
+        <v>125.0821038231534</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L11" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M11" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N11" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O11" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>1423.298891966343</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D12" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E12" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F12" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S12" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T12" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U12" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V12" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W12" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X12" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y12" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>593.9750599092082</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C13" t="n">
-        <v>593.9750599092082</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D13" t="n">
-        <v>428.0970671107308</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E13" t="n">
-        <v>428.0970671107308</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>97.32948623585938</v>
       </c>
       <c r="I13" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K13" t="n">
-        <v>308.7021231727439</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L13" t="n">
-        <v>726.9120049407049</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M13" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O13" t="n">
-        <v>1566.63415311139</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q13" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>1431.389973199381</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>1152.956972452486</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V13" t="n">
-        <v>866.0014643229167</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>593.9750599092082</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X13" t="n">
-        <v>593.9750599092082</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.9750599092082</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.4552724744735</v>
+        <v>1000.725759434274</v>
       </c>
       <c r="C14" t="n">
-        <v>33.94366860160834</v>
+        <v>562.583286617697</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>562.583286617697</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>562.583286617697</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M14" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N14" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
-        <v>1107.976466382457</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>1409.01188313462</v>
       </c>
       <c r="Y14" t="n">
-        <v>869.7548429593813</v>
+        <v>1000.725759434274</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D15" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E15" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S15" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T15" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U15" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V15" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W15" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X15" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y15" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.0704516497129</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C16" t="n">
-        <v>249.5087401329378</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D16" t="n">
-        <v>83.63074733446049</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E16" t="n">
-        <v>83.63074733446049</v>
+        <v>399.1575173855744</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>222.4504633473306</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q16" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X16" t="n">
-        <v>613.8890703687</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y16" t="n">
-        <v>613.8890703687</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.369965159541</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="C17" t="n">
-        <v>1351.369965159541</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="D17" t="n">
-        <v>915.4601803339856</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="E17" t="n">
-        <v>481.6854354922808</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="F17" t="n">
-        <v>53.81800590148855</v>
+        <v>459.3501069110884</v>
       </c>
       <c r="G17" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H17" t="n">
         <v>53.81800590148855</v>
@@ -5518,16 +5518,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
@@ -5542,25 +5542,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2583.654006869544</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>2178.798552280577</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X17" t="n">
-        <v>1759.656088859888</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y17" t="n">
-        <v>1351.369965159541</v>
+        <v>1325.360009318457</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
         <v>1058.729261281022</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.8950539462408</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>392.5208932891006</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508568</v>
       </c>
       <c r="G19" t="n">
         <v>53.40121652862856</v>
@@ -5673,19 +5673,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M19" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O19" t="n">
         <v>2154.361157596754</v>
@@ -5697,28 +5697,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U19" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W19" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.13334335112</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y19" t="n">
-        <v>954.7136726652279</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>1763.042839762062</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>1324.900366945485</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>888.9905821199295</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I20" t="n">
         <v>53.40121652862856</v>
@@ -5755,16 +5755,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O20" t="n">
         <v>1293.567921177998</v>
@@ -5791,13 +5791,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>2634.537682508855</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X20" t="n">
-        <v>2215.395219088166</v>
+        <v>2597.628533947316</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>2189.342410246969</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>394.9608689238808</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
         <v>1716.640978007438</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>900.7186013536157</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1568898368406</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D22" t="n">
-        <v>562.2788970383633</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E22" t="n">
-        <v>392.5208932891006</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8138392508568</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H22" t="n">
         <v>53.40121652862856</v>
@@ -5910,19 +5910,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5943,19 +5943,19 @@
         <v>2402.763558715255</v>
       </c>
       <c r="U22" t="n">
-        <v>2124.33055796836</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V22" t="n">
-        <v>1837.375049838791</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W22" t="n">
-        <v>1565.348645425082</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.956890758495</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y22" t="n">
-        <v>1092.537220072603</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.512437976118</v>
+        <v>1824.618792525831</v>
       </c>
       <c r="C23" t="n">
-        <v>1351.369965159541</v>
+        <v>1386.476319709254</v>
       </c>
       <c r="D23" t="n">
-        <v>915.4601803339856</v>
+        <v>950.5665348836988</v>
       </c>
       <c r="E23" t="n">
-        <v>481.6854354922808</v>
+        <v>516.7917900419939</v>
       </c>
       <c r="F23" t="n">
-        <v>53.81800590148855</v>
+        <v>88.92436045120161</v>
       </c>
       <c r="G23" t="n">
-        <v>53.81800590148855</v>
+        <v>88.92436045120161</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
         <v>53.40121652862856</v>
@@ -6019,22 +6019,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V23" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W23" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X23" t="n">
-        <v>2449.993599304466</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.812008461025</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L24" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M24" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N24" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6126,19 +6126,19 @@
         <v>762.8950539462408</v>
       </c>
       <c r="C25" t="n">
-        <v>590.3333424294657</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="D25" t="n">
-        <v>424.4553496309884</v>
+        <v>597.0170611477635</v>
       </c>
       <c r="E25" t="n">
-        <v>254.6973458817257</v>
+        <v>427.2590573985007</v>
       </c>
       <c r="F25" t="n">
-        <v>77.99029184348186</v>
+        <v>250.5520033602569</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>84.96072838608458</v>
       </c>
       <c r="H25" t="n">
         <v>53.40121652862856</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1828.15434655531</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C26" t="n">
-        <v>1390.011873738734</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D26" t="n">
-        <v>954.1020889131782</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>520.3273440714734</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F26" t="n">
-        <v>92.45991448068111</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="L26" t="n">
         <v>1149.495958523325</v>
       </c>
-      <c r="L26" t="n">
-        <v>1293.567921177998</v>
-      </c>
       <c r="M26" t="n">
-        <v>1293.567921177998</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2190.771296621484</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V26" t="n">
-        <v>1828.15434655531</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W26" t="n">
-        <v>1828.15434655531</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X26" t="n">
-        <v>1828.15434655531</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y26" t="n">
-        <v>1828.15434655531</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="27">
@@ -6299,13 +6299,13 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
-        <v>79.46488968908616</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J27" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K27" t="n">
         <v>1058.729261281022</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>968.8969033375045</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C28" t="n">
-        <v>871.2377163984103</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D28" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E28" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F28" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862855</v>
+        <v>97.32948623585983</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y28" t="n">
-        <v>1160.715522056492</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1644.867847691197</v>
+        <v>1757.135524511149</v>
       </c>
       <c r="C29" t="n">
-        <v>1206.72537487462</v>
+        <v>1318.993051694572</v>
       </c>
       <c r="D29" t="n">
-        <v>770.8155900490646</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E29" t="n">
-        <v>770.8155900490646</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F29" t="n">
-        <v>342.9481604582723</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L29" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M29" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2570.277102800463</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2570.277102800463</v>
       </c>
       <c r="V29" t="n">
-        <v>1744.502472739147</v>
+        <v>2570.277102800463</v>
       </c>
       <c r="W29" t="n">
-        <v>1644.867847691197</v>
+        <v>2165.421648211496</v>
       </c>
       <c r="X29" t="n">
-        <v>1644.867847691197</v>
+        <v>2165.421648211496</v>
       </c>
       <c r="Y29" t="n">
-        <v>1644.867847691197</v>
+        <v>1757.135524511149</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6545,19 +6545,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M30" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N30" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O30" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P30" t="n">
         <v>1058.729261281022</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6627,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6648,25 +6648,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2489.401636434797</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>2210.968635687902</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1924.013127558332</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1789.095648603258</v>
+        <v>1321.225739685594</v>
       </c>
       <c r="C32" t="n">
-        <v>1350.953175786681</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="D32" t="n">
-        <v>915.0433909611256</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194209</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862857</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K32" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L32" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M32" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N32" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2570.855062090121</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>2208.238112023947</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>2208.238112023947</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X32" t="n">
-        <v>1789.095648603258</v>
+        <v>1729.51186338594</v>
       </c>
       <c r="Y32" t="n">
-        <v>1789.095648603258</v>
+        <v>1321.225739685594</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6849,13 +6849,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6864,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1119.127665960512</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C35" t="n">
-        <v>1119.127665960512</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D35" t="n">
-        <v>1119.127665960512</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E35" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F35" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6967,22 +6967,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2327.186649932282</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="V35" t="n">
-        <v>1964.569699866109</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="W35" t="n">
-        <v>1964.569699866109</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="X35" t="n">
-        <v>1545.42723644542</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y35" t="n">
-        <v>1545.42723644542</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C36" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D36" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E36" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F36" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G36" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S36" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T36" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U36" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V36" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W36" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X36" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y36" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
         <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7101,7 +7101,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
@@ -7119,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C38" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="D38" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="E38" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="F38" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="G38" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K38" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L38" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M38" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7204,22 +7204,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>1828.15434655531</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W38" t="n">
-        <v>1828.15434655531</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X38" t="n">
-        <v>1409.011883134621</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000.725759434275</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M39" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N39" t="n">
-        <v>1375.081325612186</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O39" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P39" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q39" t="n">
         <v>1599.468199913098</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>966.8681021663376</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C40" t="n">
-        <v>794.3063906495626</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D40" t="n">
-        <v>628.4283978510853</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E40" t="n">
-        <v>458.6703941018225</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F40" t="n">
-        <v>281.9633400635787</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7365,19 +7365,19 @@
         <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>2190.480058781082</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.524550651513</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W40" t="n">
-        <v>1631.498146237804</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X40" t="n">
-        <v>1386.106391571217</v>
+        <v>1235.618046634173</v>
       </c>
       <c r="Y40" t="n">
-        <v>1158.686720885325</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2261.774702731082</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="C41" t="n">
-        <v>1823.632229914505</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D41" t="n">
-        <v>1387.722445088949</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E41" t="n">
-        <v>953.9477002472445</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F41" t="n">
-        <v>526.0802706564523</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G41" t="n">
-        <v>124.6824392797162</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
@@ -7417,46 +7417,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M41" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N41" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X41" t="n">
-        <v>2670.060826431428</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y41" t="n">
-        <v>2261.774702731082</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7493,25 +7493,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L42" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M42" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N42" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O42" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P42" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
         <v>1716.640978007438</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>281.9633400635787</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>281.9633400635787</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2023.694028819559</v>
+        <v>1595.438651721783</v>
       </c>
       <c r="C44" t="n">
-        <v>1585.551556002983</v>
+        <v>1157.296178905206</v>
       </c>
       <c r="D44" t="n">
-        <v>1149.641771177427</v>
+        <v>721.3863940796509</v>
       </c>
       <c r="E44" t="n">
-        <v>715.8670263357221</v>
+        <v>721.3863940796509</v>
       </c>
       <c r="F44" t="n">
-        <v>287.9995967449299</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L44" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M44" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V44" t="n">
-        <v>2449.993599304467</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W44" t="n">
-        <v>2449.993599304467</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X44" t="n">
-        <v>2449.993599304467</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2449.993599304467</v>
+        <v>1595.438651721783</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P45" t="n">
         <v>1058.729261281022</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862855</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7833,25 +7833,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X46" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,11 +8215,11 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8379,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8619,19 +8619,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8856,19 +8856,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L17" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O20" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L20" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M21" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9877,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047206</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>226.6534083847598</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11065,7 +11065,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11141,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>658.3613220306672</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>20.43155020079342</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22612,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.87936968596773</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,25 +22707,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.451603185973511</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>80.20739697621417</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22786,13 +22786,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>429.200381926286</v>
       </c>
       <c r="E5" t="n">
-        <v>243.8172059355541</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22801,7 +22801,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22843,7 +22843,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22944,22 +22944,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>33.63230540015951</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>33.01872496777435</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22995,22 +22995,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>71.93292813968966</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>18.17226746074766</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>141.650018295954</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2267941999246</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>353.0372983524361</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23278,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.2843627229129</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>159.1377277417684</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>28.34456025427443</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,16 +23506,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>317.2949804488067</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.7497755523377</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>135.0797604404448</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>282.1459260746808</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>273.4480291992468</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>365.6389875597296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>343.2430692272118</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.14686572942469</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>141.6500182959534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>251.0709405278686</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>172.3634875283365</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276478</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>358.7157420904367</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>251.3698587069405</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>74.15349933190407</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>44.28436272291246</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>201.8960235390377</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>302.1686212456058</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.2317280362601</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>400.1103355268082</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>195.7530422927078</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>107.6056597991482</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>168.2206048567851</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25405,13 +25405,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>94.11824890888676</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>201.9333177378955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>52.94985625022227</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>254.4590069148959</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>215.6704424876392</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>48.9349040097195</v>
       </c>
       <c r="G44" t="n">
-        <v>165.1314566488305</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>348708.8086472606</v>
+        <v>348708.8086472607</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>348708.8086472607</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348708.8086472605</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348708.8086472606</v>
+        <v>490548.9475593995</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490548.9475593994</v>
+        <v>490548.9475593995</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490548.9475593995</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490548.9475593996</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490548.9475593996</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490548.9475593995</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490548.9475593996</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490548.9475593995</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490548.9475593996</v>
+        <v>490548.9475593995</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490548.9475593995</v>
+        <v>490548.9475593994</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534781</v>
       </c>
       <c r="C2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="D2" t="n">
-        <v>78131.51941534779</v>
+        <v>109912.1492488192</v>
       </c>
       <c r="E2" t="n">
-        <v>78131.51941534781</v>
+        <v>109912.1492488192</v>
       </c>
       <c r="F2" t="n">
-        <v>78131.51941534779</v>
+        <v>109912.1492488192</v>
       </c>
       <c r="G2" t="n">
         <v>109912.1492488192</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>75551.22640712859</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66662.77529471669</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61556.6282799684</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>58530.97957731676</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="C4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="D4" t="n">
-        <v>6500.075391072235</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="E4" t="n">
-        <v>6500.075391072235</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="F4" t="n">
-        <v>6500.075391072234</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="G4" t="n">
         <v>9144.033827297713</v>
       </c>
       <c r="H4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="I4" t="n">
         <v>9144.033827297713</v>
@@ -26444,13 +26444,13 @@
         <v>9144.033827297713</v>
       </c>
       <c r="K4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="L4" t="n">
         <v>9144.033827297713</v>
       </c>
       <c r="M4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="N4" t="n">
         <v>9144.033827297713</v>
@@ -26475,13 +26475,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
         <v>40584.9245617577</v>
@@ -26493,25 +26493,25 @@
         <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129984.6447726567</v>
+        <v>-130724.0013845724</v>
       </c>
       <c r="C6" t="n">
-        <v>12206.65588705321</v>
+        <v>11467.29927513756</v>
       </c>
       <c r="D6" t="n">
-        <v>12206.65588705322</v>
+        <v>-49490.52577594609</v>
       </c>
       <c r="E6" t="n">
-        <v>45834.25588705323</v>
+        <v>59688.3006311825</v>
       </c>
       <c r="F6" t="n">
-        <v>45834.25588705322</v>
+        <v>59688.30063118252</v>
       </c>
       <c r="G6" t="n">
-        <v>-6479.584434952943</v>
+        <v>59688.30063118254</v>
       </c>
       <c r="H6" t="n">
-        <v>60183.19085976379</v>
+        <v>59688.30063118253</v>
       </c>
       <c r="I6" t="n">
-        <v>60183.19085976379</v>
+        <v>59688.30063118253</v>
       </c>
       <c r="J6" t="n">
-        <v>-50831.27448522643</v>
+        <v>-51326.1647138077</v>
       </c>
       <c r="K6" t="n">
-        <v>60183.19085976378</v>
+        <v>59688.3006311825</v>
       </c>
       <c r="L6" t="n">
-        <v>60183.19085976378</v>
+        <v>-1868.327648785853</v>
       </c>
       <c r="M6" t="n">
-        <v>60183.1908597638</v>
+        <v>59688.30063118252</v>
       </c>
       <c r="N6" t="n">
-        <v>60183.1908597638</v>
+        <v>59688.3006311825</v>
       </c>
       <c r="O6" t="n">
-        <v>1652.211282447024</v>
+        <v>59688.3006311825</v>
       </c>
       <c r="P6" t="n">
-        <v>60183.19085976377</v>
+        <v>59688.3006311825</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
         <v>667.515206607857</v>
@@ -26813,25 +26813,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,11 +34935,11 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35099,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,19 +35339,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35491,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,19 +35576,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8679565343714</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L17" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36050,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36123,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O20" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L20" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M21" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36597,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36995,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37232,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,10 +37469,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047206</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>226.6534083847598</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37785,7 +37785,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>658.3613220306672</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
